--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1542.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1542.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.222746755660252</v>
+        <v>1.648550629615784</v>
       </c>
       <c r="B1">
-        <v>1.751310802286372</v>
+        <v>2.980233907699585</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.632588386535645</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.388772249221802</v>
       </c>
       <c r="E1">
-        <v>0.9904690112429423</v>
+        <v>0.8102708458900452</v>
       </c>
     </row>
   </sheetData>
